--- a/excel examples/questionsExample.xlsx
+++ b/excel examples/questionsExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Desktop\readingspreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Documents\cbt\cbt-new\computer-based-assessment\excel examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,27 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>who discovered mongo park?</t>
   </si>
   <si>
-    <t>correct</t>
-  </si>
-  <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>questionFor</t>
   </si>
   <si>
     <t>a: Julius beger;b: Akpan;c: James;d: Titus;</t>
@@ -368,46 +353,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel examples/questionsExample.xlsx
+++ b/excel examples/questionsExample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>who discovered mongo park?</t>
   </si>
@@ -35,7 +35,25 @@
     <t>a: Julius beger;b: Akpan;c: James;d: Titus;</t>
   </si>
   <si>
-    <t>natural sciences:mathematical sciences;</t>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Question For</t>
+  </si>
+  <si>
+    <t>natural sciences, education, philosophy</t>
   </si>
 </sst>
 </file>
@@ -356,29 +374,29 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="b">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -398,7 +416,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/excel examples/questionsExample.xlsx
+++ b/excel examples/questionsExample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>who discovered mongo park?</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>natural sciences, education, philosophy</t>
+  </si>
+  <si>
+    <t>James brown</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +422,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel examples/questionsExample.xlsx
+++ b/excel examples/questionsExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Documents\cbt\cbt-new\computer-based-assessment\excel examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alikali Ojonugwa\Documents\React-Projectx\COMPUTER_BASED-ASSESSMENT\cbt\excel examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,15 +53,23 @@
     <t>Question For</t>
   </si>
   <si>
-    <t>natural sciences, education, philosophy</t>
+    <t>natural sciences, education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,28 +383,35 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -421,5 +437,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel examples/questionsExample.xlsx
+++ b/excel examples/questionsExample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>who discovered mongo park?</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Question Type</t>
   </si>
   <si>
-    <t>Correct</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
@@ -54,6 +51,18 @@
   </si>
   <si>
     <t>natural sciences, education</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>What is the meaning PAAU</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a: Prince Adeiza Audu University;b: Prince Abubakar Audu University;c: Prince Abdullahi Audu University;d: Prince Adeiza Ahmodu University;</t>
   </si>
 </sst>
 </file>
@@ -380,18 +389,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="125.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,16 +412,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -432,7 +441,24 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
